--- a/resultados/Dados RPI.xlsx
+++ b/resultados/Dados RPI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,11 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AGENTES IMUNOESTIMULADORES EM COMBINAÇÃO COM INIBIDORES DE ANGIOGÊNESE</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -515,6 +519,211 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BR 10 2022 018494-1 A2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15/09/2022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Republicado o despacho anterior, de forma mais detalhada: Para o requerimento de trâmite prioritário efetuado através da petição nº 870220090531, de 03/10/2022, atender as condições formais, o interessado deve cumprir ao disposto no art. 4º, inciso IV, cc. art. 11, parágrafo 2º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22, e manifestar-se através do código de serviço 206 no prazo de 60 dias, sob pena de inadmissão. Especificamente, na folha de esclarecimentos, apontar o item e subitem do ANEXO II DA PORTARIA/INPI/PR Nº 054, DE 15 DE DEZEMBRO DE 2021, em que a sua tecnologia apresentada se enquadra. O cumprimento da exigência realizado não foi satisfatório, pois não foi feito como o solicitado. Apenas cumpra, em folha simples, através do peticionamento da GRU 206 , o que foi solicitado.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BR 11 2020 005951-0 A2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23/03/2015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTRIC INK COMÉRCIO IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP (BR/MG)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anulada a publicação código 25.4 na RPI nº 2406 de 14/02/2017 por ter sido indevida.</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BR 11 2022 019090-5 A2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Admitido o trâmite prioritário requerido através da petição nº 870220090890, de 04/10/2022, haja vista que atende ao disposto no art. 12, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BR 20 2022 022545-7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07/11/2022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Admitido o trâmite prioritário requerido através da petição nº 870220103571, de 08/11/2022, haja vista que atende ao disposto no art. 5º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BR 11 2022 020846-4 A2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15/04/2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ALKERMES PHARMA IRELAND LIMITED (IE) ; CLOVIS ONCOLOGY, INC. (US)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AGENTES IMUNOESTIMULADORES EM COMBINAÇÃO COM INIBIDORES DE ANGIOGÊNESE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BR 10 2022 018494-1 A2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15/09/2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Republicado o despacho anterior, de forma mais detalhada: Para o requerimento de trâmite prioritário efetuado através da petição nº 870220090531, de 03/10/2022, atender as condições formais, o interessado deve cumprir ao disposto no art. 4º, inciso IV, cc. art. 11, parágrafo 2º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22, e manifestar-se através do código de serviço 206 no prazo de 60 dias, sob pena de inadmissão. Especificamente, na folha de esclarecimentos, apontar o item e subitem do ANEXO II DA PORTARIA/INPI/PR Nº 054, DE 15 DE DEZEMBRO DE 2021, em que a sua tecnologia apresentada se enquadra. O cumprimento da exigência realizado não foi satisfatório, pois não foi feito como o solicitado. Apenas cumpra, em folha simples, através do peticionamento da GRU 206 , o que foi solicitado.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BR 11 2020 005951-0 A2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23/03/2015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ELECTRIC INK COMÉRCIO IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP (BR/MG)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Anulada a publicação código 25.4 na RPI nº 2406 de 14/02/2017 por ter sido indevida.</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BR 11 2022 019090-5 A2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Admitido o trâmite prioritário requerido através da petição nº 870220090890, de 04/10/2022, haja vista que atende ao disposto no art. 12, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BR 20 2022 022545-7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07/11/2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Admitido o trâmite prioritário requerido através da petição nº 870220103571, de 08/11/2022, haja vista que atende ao disposto no art. 5º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resultados/Dados RPI.xlsx
+++ b/resultados/Dados RPI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,294 +436,434 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>(21) numero da proteção</t>
+          <t>(11) numero da patente</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>(21) numero do pedido</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>(22) data do depósito</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>(71) titulares</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>(72) autores</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>(54) título</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>(co) comentário</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>(Cd) código da exigência</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>(22) data do deposito</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>(Cd) codigo da exigencia</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>(54) titulo</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>(co) comentario</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BR 11 2022 020846-4 A2</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/04/2021</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ALKERMES PHARMA IRELAND LIMITED (IE) ; CLOVIS ONCOLOGY, INC. (US)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>AGENTES IMUNOESTIMULADORES EM COMBINAÇÃO COM INIBIDORES DE ANGIOGÊNESE</t>
-        </is>
-      </c>
+          <t>BR 10 2022 024654-8</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASILIA (BR/DF) ; UNIVERSIDADE FEDERAL DO PARÁ (BR/PA)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BR 11 2022 020846-4 A2</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15/04/2021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ALKERMES PHARMA IRELAND LIMITED (IE) ; CLOVIS ONCOLOGY, INC. (US)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>BR 10 2021 011530-0 A2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EMBRAPA-EMPRESA BRASILEIRA DE PESQUISA AGROPECUARIA (BR/DF) ; UNIVERSIDADE DE BRASILIA - UNB (BR/DF)</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGENTES IMUNOESTIMULADORES EM COMBINAÇÃO COM INIBIDORES DE ANGIOGÊNESE</t>
+          <t>MARIA FÁTIMA GROSSI DE SÁ; MARIA CRISTINA MATTAR DA SILVA; LEONARDO LIMA PEPINO DE MACEDO; ISABELA TRISTAN LOURENÇO-TESSUTTI; CAROLINA VIANNA MORGANTE; ANA GABRIELA BORGES LEITE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>14/06/2021</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SILENCIAMENTO DO GENE PARA A PROTEÍNA CADERINA - APLICAÇÃO NO CONTROLE DO INSETO PRAGA, ANTHONOMUS GRANDIS, VIA RNA INTERFERENTE</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BR 10 2022 018494-1 A2</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>BR 10 2013 028596-0 A2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASÍLIA (BR/DF)</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Republicado o despacho anterior, de forma mais detalhada: Para o requerimento de trâmite prioritário efetuado através da petição nº 870220090531, de 03/10/2022, atender as condições formais, o interessado deve cumprir ao disposto no art. 4º, inciso IV, cc. art. 11, parágrafo 2º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22, e manifestar-se através do código de serviço 206 no prazo de 60 dias, sob pena de inadmissão. Especificamente, na folha de esclarecimentos, apontar o item e subitem do ANEXO II DA PORTARIA/INPI/PR Nº 054, DE 15 DE DEZEMBRO DE 2021, em que a sua tecnologia apresentada se enquadra. O cumprimento da exigência realizado não foi satisfatório, pois não foi feito como o solicitado. Apenas cumpra, em folha simples, através do peticionamento da GRU 206 , o que foi solicitado.</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>06/11/2013</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BR 11 2020 005951-0 A2</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTRIC INK COMÉRCIO IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP (BR/MG)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>BR 10 2014 004728-0 A2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASÍLIA (BR/DF)</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Anulada a publicação código 25.4 na RPI nº 2406 de 14/02/2017 por ter sido indevida.</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>25.12</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>27/02/2014</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BR 11 2022 019090-5 A2</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>BR 10 2016 004949-0 A2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASILIA/CENTRO DE APOIO AO DESENVOLVIMENTO TECNOLÓGICO (BR/DF)</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Admitido o trâmite prioritário requerido através da petição nº 870220090890, de 04/10/2022, haja vista que atende ao disposto no art. 12, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>04/03/2016</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BR 20 2022 022545-7</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>07/11/2022</t>
+          <t>BR 10 2016 004927-0 A2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASILIA/CENTRO DE APOIO AO DESENVOLVIMENTO TECNOLÓGICO (BR/DF)</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Admitido o trâmite prioritário requerido através da petição nº 870220103571, de 08/11/2022, haja vista que atende ao disposto no art. 5º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>04/03/2016</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HIDROGEL PURIFICADO RETICULADO DE BIOMASSA DO FRUTO DO GÊNERO MAGONIA PUBESCENS, SEU PROCESSO DE OBTENÇÃO E SEU USO APLICADO À INDÚSTRIA FARMACÊUTICA E DE HIGIENE</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BR 11 2022 020846-4 A2</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15/04/2021</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ALKERMES PHARMA IRELAND LIMITED (IE) ; CLOVIS ONCOLOGY, INC. (US)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AGENTES IMUNOESTIMULADORES EM COMBINAÇÃO COM INIBIDORES DE ANGIOGÊNESE</t>
-        </is>
-      </c>
+          <t>BR 10 2022 023584-8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UNIVERSIDADE FEDERAL FLUMINENSE (BR/RJ) ; FUNDAÇÃO UNIVERSIDADE DE BRASÍLIA (BR/DF) ; FUNDAÇÃO UNIVERSIDADE FEDERAL DO TOCANTINS (BR/TO) ; INSTITUTO VITAL BRAZIL (BR/RJ) ; CENTRO DE TECNOLOGIA DO NORDESTE (BR/PE) ; INSTITUTO NACIONAL DE METROLOGIA, QUALIDADE E TECNOLOGIA (BR/RJ) ; FACULDADES CATÓLICAS - PUC RJ (BR/RJ)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>19/11/2022</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BR 10 2022 018494-1 A2</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>BR 10 2022 024654-8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASILIA (BR/DF) ; UNIVERSIDADE FEDERAL DO PARÁ (BR/PA)</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Republicado o despacho anterior, de forma mais detalhada: Para o requerimento de trâmite prioritário efetuado através da petição nº 870220090531, de 03/10/2022, atender as condições formais, o interessado deve cumprir ao disposto no art. 4º, inciso IV, cc. art. 11, parágrafo 2º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22, e manifestar-se através do código de serviço 206 no prazo de 60 dias, sob pena de inadmissão. Especificamente, na folha de esclarecimentos, apontar o item e subitem do ANEXO II DA PORTARIA/INPI/PR Nº 054, DE 15 DE DEZEMBRO DE 2021, em que a sua tecnologia apresentada se enquadra. O cumprimento da exigência realizado não foi satisfatório, pois não foi feito como o solicitado. Apenas cumpra, em folha simples, através do peticionamento da GRU 206 , o que foi solicitado.</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Número de Protocolo '870220111932' em 01/12/2022 16:59 (WB)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BR 11 2020 005951-0 A2</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ELECTRIC INK COMÉRCIO IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP (BR/MG)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>BR 10 2014 004728-0 A2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASÍLIA (BR/DF)</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Anulada a publicação código 25.4 na RPI nº 2406 de 14/02/2017 por ter sido indevida.</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>25.12</v>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>27/02/2014</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Anulada a publicação código 11.5 na RPI nº 2683 de 07/06/2022 por ter sido indevida.</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BR 11 2022 019090-5 A2</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27/03/2020</t>
+          <t>BR 10 2021 011096-1 A2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Admitido o trâmite prioritário requerido através da petição nº 870220090890, de 04/10/2022, haja vista que atende ao disposto no art. 12, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASILIA (BR/DF)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TATSUYA NAGATA; ELIANE FERREIRA NORONHA; MOANA LIMA TAVARES ESASHIKA; RAVI NARAYAN SOUZA CAMPOS; MATHEUS HIDEKI KIHARA MAEDA; LUCAS HIDEO HATAKA KOYAMA; PEDRO RICARDO VIEIRA HAMANN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>09/06/2021</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>VETORES VIRAIS DERIVADOS DO MATERIAL GENÉTIDO DE PEPPER RINGSPOT VIRUS E SEU USO PARA PRODUÇÃO DE PROTEÍNAS RECOMBINANTES EM PLANTAS VIA SISTEMA HETERÓLOGO DE EXPRESSÃO</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BR 20 2022 022545-7</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/11/2022</t>
+          <t>BR 10 2017 018659-8 A2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO UNIVERSIDADE DE BRASILIA/CENTRO DE APOIO AO DESENVOLVIMENTO TECNOLÓGICO (BR/DF)</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Admitido o trâmite prioritário requerido através da petição nº 870220103571, de 08/11/2022, haja vista que atende ao disposto no art. 5º, da Portaria INPI PR nº 54, de 15/12/2021, publicada na RPI nº 2662, de 11/01/22.</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>30/08/2017</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BR 10 2013 012924-0 A2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fundação Universidade de Brasília (BR/DF) ; Universidade Federal do Rio de Janeiro -UFRJ (BR/RJ) ; UNIÃO BRASILEIRA DE EDUCAÇÃO CATÓLICA - UBEC (BR/DF)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>24/05/2013</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DERIVADOS AMÍNICOS DO LÍQUIDO DA CASCA DA CASTANHA DE CAJU COMO INIBIDORES DA ACETILCOLINESTERASE E COMPOSIÇÕES FARMACÊUTICAS CONTENDO OS MESMOS E APLICAÇÕES</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
